--- a/反暴力项目进度表.xlsx
+++ b/反暴力项目进度表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1635" windowWidth="28065" windowHeight="12315"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>项目工程进度</t>
   </si>
@@ -104,14 +104,26 @@
   </si>
   <si>
     <t>前端-校长/n8659150</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>万人墙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天（新人尽力完成）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>从小/luckboyss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -363,6 +375,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,32 +411,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,166 +688,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="10" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:17" ht="25.5">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
+    <row r="2" spans="1:17" ht="25.5">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
+    <row r="3" spans="1:17" ht="25.5">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23"/>
+    <row r="4" spans="1:17" ht="25.5">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
+    <row r="5" spans="1:17" ht="25.5">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
+    <row r="6" spans="1:17" ht="25.5">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
+    <row r="7" spans="1:17" ht="25.5">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="25.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -848,10 +860,10 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="25.5">
       <c r="A9" s="2"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -867,10 +879,10 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="25.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -884,7 +896,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="26" t="s">
         <v>3</v>
       </c>
@@ -905,22 +917,22 @@
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -949,20 +961,20 @@
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
       <c r="H14" t="s">
         <v>14</v>
       </c>
@@ -972,24 +984,24 @@
       <c r="J14" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="20" t="s">
         <v>22</v>
       </c>
@@ -999,75 +1011,75 @@
       <c r="J15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="22">
         <v>43764</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="22">
         <v>43766</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="7">
         <v>4</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
       <c r="I17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="7">
         <v>5</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
       <c r="H18" t="s">
         <v>24</v>
       </c>
@@ -1077,355 +1089,294 @@
       <c r="J18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="7"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="7"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="7"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="7"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="7"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="28"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="7"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="7"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="7"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="28"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="7"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="28"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="7"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="7"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="7"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="28"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="7"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="28"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="7"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="28"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="7"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="29"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="28"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="7"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="28"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="7"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="29"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="28"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="7"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="29"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="28"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="7"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="29"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="28"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="7"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="29"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="28"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="8"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="25"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="K35:M35"/>
     <mergeCell ref="A1:M7"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="F40:G40"/>
@@ -1442,6 +1393,82 @@
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="K36:M36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
